--- a/case-study/Team-Formation.xlsx
+++ b/case-study/Team-Formation.xlsx
@@ -146,13 +146,6 @@
     <font>
       <b/>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -179,8 +172,15 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +196,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -232,29 +238,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -566,7 +574,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -580,7 +588,7 @@
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -640,10 +648,10 @@
     <row r="7" spans="1:4" ht="33">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -680,11 +688,11 @@
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="2"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
@@ -710,7 +718,7 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="33">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="5"/>
@@ -747,7 +755,7 @@
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>27</v>
       </c>
     </row>
